--- a/data/trans_orig/P04B3_1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCA3E056-F8D9-4620-B25C-DB8278E2C4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D869AE-1720-460E-BF6F-24449073E206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37C0B784-2E4A-4E56-942F-BAFDB427165E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F7A2F49-E29E-4498-900C-09B7650987F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,19 +74,19 @@
     <t>10,05%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
   </si>
   <si>
     <t>6,53%</t>
@@ -95,7 +95,7 @@
     <t>4,21%</t>
   </si>
   <si>
-    <t>10,33%</t>
+    <t>10,46%</t>
   </si>
   <si>
     <t>A veces</t>
@@ -104,622 +104,622 @@
     <t>7,92%</t>
   </si>
   <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
     <t>3,9%</t>
   </si>
   <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>Apenas</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>Nunca/No</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
     <t>13,99%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>Apenas</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>Nunca/No</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
   </si>
   <si>
     <t>15,4%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>17,14%</t>
   </si>
   <si>
     <t>44,58%</t>
   </si>
   <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
   </si>
   <si>
     <t>47,05%</t>
   </si>
   <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1134,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1524FC-D43A-4C9D-9CF3-41B65A2D0A8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1949B152-69EE-4462-990D-BC6AE7C3B7BB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1647,13 +1647,13 @@
         <v>116825</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,13 +1668,13 @@
         <v>298133</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>581</v>
@@ -1683,13 +1683,13 @@
         <v>362263</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>919</v>
@@ -1698,13 +1698,13 @@
         <v>660396</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,7 +1760,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1772,13 +1772,13 @@
         <v>276234</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>390</v>
@@ -1787,13 +1787,13 @@
         <v>294823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>663</v>
@@ -1802,13 +1802,13 @@
         <v>571057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,13 +1823,13 @@
         <v>126262</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>195</v>
@@ -1838,13 +1838,13 @@
         <v>136602</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>324</v>
@@ -1853,13 +1853,13 @@
         <v>262864</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1874,13 @@
         <v>168407</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>231</v>
@@ -1889,13 +1889,13 @@
         <v>171114</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>373</v>
@@ -1904,13 +1904,13 @@
         <v>339522</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,28 +1925,28 @@
         <v>468344</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>699</v>
       </c>
       <c r="I17" s="7">
-        <v>456710</v>
+        <v>456709</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>1119</v>
@@ -1955,13 +1955,13 @@
         <v>925054</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,7 +1988,7 @@
         <v>1515</v>
       </c>
       <c r="I18" s="7">
-        <v>1059249</v>
+        <v>1059248</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2029,13 +2029,13 @@
         <v>121060</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>149</v>
@@ -2044,13 +2044,13 @@
         <v>117227</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>267</v>
@@ -2059,13 +2059,13 @@
         <v>238288</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2080,13 @@
         <v>97309</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>171</v>
@@ -2095,13 +2095,13 @@
         <v>98272</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>272</v>
@@ -2110,13 +2110,13 @@
         <v>195580</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2131,13 @@
         <v>213387</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>261</v>
@@ -2146,13 +2146,13 @@
         <v>194045</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>445</v>
@@ -2161,13 +2161,13 @@
         <v>407433</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2182,13 @@
         <v>296855</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>465</v>
@@ -2197,13 +2197,13 @@
         <v>464106</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>737</v>
@@ -2212,13 +2212,13 @@
         <v>760961</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,7 +2274,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2286,13 +2286,13 @@
         <v>333703</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>511</v>
@@ -2301,13 +2301,13 @@
         <v>404619</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>865</v>
@@ -2316,13 +2316,13 @@
         <v>738322</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2337,13 @@
         <v>131589</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>253</v>
@@ -2352,13 +2352,13 @@
         <v>180291</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>387</v>
@@ -2367,13 +2367,13 @@
         <v>311880</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,13 +2388,13 @@
         <v>123710</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>202</v>
@@ -2403,13 +2403,13 @@
         <v>150102</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>332</v>
@@ -2418,13 +2418,13 @@
         <v>273812</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2439,13 @@
         <v>375205</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>594</v>
@@ -2454,13 +2454,13 @@
         <v>414481</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>980</v>
@@ -2469,13 +2469,13 @@
         <v>789686</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2543,13 @@
         <v>872273</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>1240</v>
@@ -2558,13 +2558,13 @@
         <v>944238</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>2133</v>
@@ -2579,7 +2579,7 @@
         <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2594,13 @@
         <v>430770</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>762</v>
@@ -2609,13 +2609,13 @@
         <v>495012</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>1219</v>
@@ -2624,13 +2624,13 @@
         <v>925782</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2645,13 @@
         <v>572251</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>825</v>
@@ -2660,13 +2660,13 @@
         <v>590477</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>1352</v>
@@ -2675,13 +2675,13 @@
         <v>1162728</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2696,13 @@
         <v>1508578</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>2535</v>
@@ -2711,13 +2711,13 @@
         <v>1803366</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>4031</v>
@@ -2726,7 +2726,7 @@
         <v>3311943</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>226</v>

--- a/data/trans_orig/P04B3_1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D869AE-1720-460E-BF6F-24449073E206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59AFEF6D-3236-4CE1-BA08-7357B7966766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F7A2F49-E29E-4498-900C-09B7650987F2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AF47E147-9DBF-466F-B3FB-025644D371CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="195">
   <si>
     <t>Población según si percibe la temperatura en la vivienda durante el verano como un problema en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -65,661 +65,559 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>A menudo</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
   </si>
   <si>
     <t>A veces</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>Apenas</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>Apenas</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>Nunca/No</t>
   </si>
   <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
   </si>
   <si>
     <t>14,64%</t>
   </si>
   <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1134,8 +1032,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1949B152-69EE-4462-990D-BC6AE7C3B7BB}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D904ED-34D7-4C18-B24A-2B9237A5A8C6}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1252,10 +1150,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="D4" s="7">
-        <v>10245</v>
+        <v>125015</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1267,10 +1165,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="I4" s="7">
-        <v>4947</v>
+        <v>110425</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1282,10 +1180,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>24</v>
+        <v>338</v>
       </c>
       <c r="N4" s="7">
-        <v>15191</v>
+        <v>235440</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1303,10 +1201,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="D5" s="7">
-        <v>8078</v>
+        <v>74574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1318,10 +1216,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I5" s="7">
-        <v>8463</v>
+        <v>74987</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1333,10 +1231,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="N5" s="7">
-        <v>16541</v>
+        <v>149561</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1354,10 +1252,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D6" s="7">
-        <v>13619</v>
+        <v>66561</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1369,10 +1267,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="I6" s="7">
-        <v>11517</v>
+        <v>71479</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1384,10 +1282,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="N6" s="7">
-        <v>25136</v>
+        <v>138040</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1405,10 +1303,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="D7" s="7">
-        <v>70040</v>
+        <v>369291</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1420,10 +1318,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>196</v>
+        <v>777</v>
       </c>
       <c r="I7" s="7">
-        <v>105806</v>
+        <v>468440</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1435,10 +1333,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>276</v>
+        <v>1195</v>
       </c>
       <c r="N7" s="7">
-        <v>175846</v>
+        <v>837732</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1456,10 +1354,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D8" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1471,10 +1369,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I8" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1486,10 +1384,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N8" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1509,10 +1407,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="D9" s="7">
-        <v>131031</v>
+        <v>239846</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1524,10 +1422,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>180</v>
+        <v>390</v>
       </c>
       <c r="I9" s="7">
-        <v>122622</v>
+        <v>249987</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1539,10 +1437,10 @@
         <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>314</v>
+        <v>663</v>
       </c>
       <c r="N9" s="7">
-        <v>253653</v>
+        <v>489833</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1560,10 +1458,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="D10" s="7">
-        <v>67532</v>
+        <v>122981</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1575,10 +1473,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="I10" s="7">
-        <v>71384</v>
+        <v>124907</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1590,10 +1488,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="N10" s="7">
-        <v>138916</v>
+        <v>247889</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1611,49 +1509,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="D11" s="7">
-        <v>53127</v>
+        <v>164122</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>231</v>
+      </c>
+      <c r="I11" s="7">
+        <v>156188</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="7">
-        <v>112</v>
-      </c>
-      <c r="I11" s="7">
-        <v>63698</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>373</v>
+      </c>
+      <c r="N11" s="7">
+        <v>320310</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="7">
-        <v>169</v>
-      </c>
-      <c r="N11" s="7">
-        <v>116825</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,49 +1560,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>338</v>
+        <v>420</v>
       </c>
       <c r="D12" s="7">
-        <v>298133</v>
+        <v>665914</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>699</v>
+      </c>
+      <c r="I12" s="7">
+        <v>426788</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="7">
-        <v>581</v>
-      </c>
-      <c r="I12" s="7">
-        <v>362263</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>1119</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1092702</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="7">
-        <v>919</v>
-      </c>
-      <c r="N12" s="7">
-        <v>660396</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,10 +1611,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D13" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1728,10 +1626,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>998</v>
+        <v>1515</v>
       </c>
       <c r="I13" s="7">
-        <v>619967</v>
+        <v>957870</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1743,10 +1641,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>1610</v>
+        <v>2479</v>
       </c>
       <c r="N13" s="7">
-        <v>1169790</v>
+        <v>2150734</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1760,55 +1658,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>273</v>
+        <v>118</v>
       </c>
       <c r="D14" s="7">
-        <v>276234</v>
+        <v>105007</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>149</v>
+      </c>
+      <c r="I14" s="7">
+        <v>99137</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="7">
-        <v>390</v>
-      </c>
-      <c r="I14" s="7">
-        <v>294823</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>267</v>
+      </c>
+      <c r="N14" s="7">
+        <v>204144</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="7">
-        <v>663</v>
-      </c>
-      <c r="N14" s="7">
-        <v>571057</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,49 +1715,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D15" s="7">
-        <v>126262</v>
+        <v>93734</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>171</v>
+      </c>
+      <c r="I15" s="7">
+        <v>91926</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="7">
-        <v>195</v>
-      </c>
-      <c r="I15" s="7">
-        <v>136602</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>272</v>
+      </c>
+      <c r="N15" s="7">
+        <v>185659</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M15" s="7">
-        <v>324</v>
-      </c>
-      <c r="N15" s="7">
-        <v>262864</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,49 +1766,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="D16" s="7">
-        <v>168407</v>
+        <v>208861</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>261</v>
+      </c>
+      <c r="I16" s="7">
+        <v>178925</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="7">
-        <v>231</v>
-      </c>
-      <c r="I16" s="7">
-        <v>171114</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>445</v>
+      </c>
+      <c r="N16" s="7">
+        <v>387786</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M16" s="7">
-        <v>373</v>
-      </c>
-      <c r="N16" s="7">
-        <v>339522</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,49 +1817,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>420</v>
+        <v>272</v>
       </c>
       <c r="D17" s="7">
-        <v>468344</v>
+        <v>296914</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>465</v>
+      </c>
+      <c r="I17" s="7">
+        <v>562722</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="7">
-        <v>699</v>
-      </c>
-      <c r="I17" s="7">
-        <v>456709</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>737</v>
+      </c>
+      <c r="N17" s="7">
+        <v>859636</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M17" s="7">
-        <v>1119</v>
-      </c>
-      <c r="N17" s="7">
-        <v>925054</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,10 +1868,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D18" s="7">
-        <v>1039248</v>
+        <v>704516</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1985,10 +1883,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>1515</v>
+        <v>1046</v>
       </c>
       <c r="I18" s="7">
-        <v>1059248</v>
+        <v>932710</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2000,10 +1898,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>2479</v>
+        <v>1721</v>
       </c>
       <c r="N18" s="7">
-        <v>2098496</v>
+        <v>1637226</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2017,55 +1915,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>118</v>
+        <v>354</v>
       </c>
       <c r="D19" s="7">
-        <v>121060</v>
+        <v>302113</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>511</v>
+      </c>
+      <c r="I19" s="7">
+        <v>405007</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="7">
-        <v>149</v>
-      </c>
-      <c r="I19" s="7">
-        <v>117227</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>865</v>
+      </c>
+      <c r="N19" s="7">
+        <v>707121</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="7">
-        <v>267</v>
-      </c>
-      <c r="N19" s="7">
-        <v>238288</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,49 +1972,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="D20" s="7">
-        <v>97309</v>
+        <v>126075</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>253</v>
+      </c>
+      <c r="I20" s="7">
+        <v>164934</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="7">
-        <v>171</v>
-      </c>
-      <c r="I20" s="7">
-        <v>98272</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>387</v>
+      </c>
+      <c r="N20" s="7">
+        <v>291009</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M20" s="7">
-        <v>272</v>
-      </c>
-      <c r="N20" s="7">
-        <v>195580</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,49 +2023,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="D21" s="7">
-        <v>213387</v>
+        <v>119588</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>202</v>
+      </c>
+      <c r="I21" s="7">
+        <v>136693</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="7">
-        <v>261</v>
-      </c>
-      <c r="I21" s="7">
-        <v>194045</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>332</v>
+      </c>
+      <c r="N21" s="7">
+        <v>256281</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M21" s="7">
-        <v>445</v>
-      </c>
-      <c r="N21" s="7">
-        <v>407433</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,49 +2074,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>272</v>
+        <v>386</v>
       </c>
       <c r="D22" s="7">
-        <v>296855</v>
+        <v>377873</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>594</v>
+      </c>
+      <c r="I22" s="7">
+        <v>387409</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="7">
-        <v>465</v>
-      </c>
-      <c r="I22" s="7">
-        <v>464106</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>980</v>
+      </c>
+      <c r="N22" s="7">
+        <v>765282</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M22" s="7">
-        <v>737</v>
-      </c>
-      <c r="N22" s="7">
-        <v>760961</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,10 +2125,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>675</v>
+        <v>1004</v>
       </c>
       <c r="D23" s="7">
-        <v>728612</v>
+        <v>925650</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2242,10 +2140,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>1046</v>
+        <v>1560</v>
       </c>
       <c r="I23" s="7">
-        <v>873650</v>
+        <v>1094043</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2257,10 +2155,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>1721</v>
+        <v>2564</v>
       </c>
       <c r="N23" s="7">
-        <v>1602262</v>
+        <v>2019693</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2274,55 +2172,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>354</v>
+        <v>893</v>
       </c>
       <c r="D24" s="7">
-        <v>333703</v>
+        <v>771982</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>1240</v>
+      </c>
+      <c r="I24" s="7">
+        <v>864557</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="7">
-        <v>511</v>
-      </c>
-      <c r="I24" s="7">
-        <v>404619</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>2133</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1636539</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="M24" s="7">
-        <v>865</v>
-      </c>
-      <c r="N24" s="7">
-        <v>738322</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,49 +2229,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>134</v>
+        <v>457</v>
       </c>
       <c r="D25" s="7">
-        <v>131589</v>
+        <v>417364</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>762</v>
+      </c>
+      <c r="I25" s="7">
+        <v>456754</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H25" s="7">
-        <v>253</v>
-      </c>
-      <c r="I25" s="7">
-        <v>180291</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>1219</v>
+      </c>
+      <c r="N25" s="7">
+        <v>874117</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M25" s="7">
-        <v>387</v>
-      </c>
-      <c r="N25" s="7">
-        <v>311880</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,49 +2280,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>130</v>
+        <v>527</v>
       </c>
       <c r="D26" s="7">
-        <v>123710</v>
+        <v>559132</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>825</v>
+      </c>
+      <c r="I26" s="7">
+        <v>543285</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H26" s="7">
-        <v>202</v>
-      </c>
-      <c r="I26" s="7">
-        <v>150102</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>1352</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1102417</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="M26" s="7">
-        <v>332</v>
-      </c>
-      <c r="N26" s="7">
-        <v>273812</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,49 +2331,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>386</v>
+        <v>1496</v>
       </c>
       <c r="D27" s="7">
-        <v>375205</v>
+        <v>1709993</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>2535</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1845359</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H27" s="7">
-        <v>594</v>
-      </c>
-      <c r="I27" s="7">
-        <v>414481</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="L27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="7">
+        <v>4031</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3555352</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="M27" s="7">
-        <v>980</v>
-      </c>
-      <c r="N27" s="7">
-        <v>789686</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,10 +2382,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>1004</v>
+        <v>3373</v>
       </c>
       <c r="D28" s="7">
-        <v>964207</v>
+        <v>3458471</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2499,10 +2397,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>1560</v>
+        <v>5362</v>
       </c>
       <c r="I28" s="7">
-        <v>1149494</v>
+        <v>3709954</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2514,10 +2412,10 @@
         <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>2564</v>
+        <v>8735</v>
       </c>
       <c r="N28" s="7">
-        <v>2113701</v>
+        <v>7168425</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2530,273 +2428,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>893</v>
-      </c>
-      <c r="D29" s="7">
-        <v>872273</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1240</v>
-      </c>
-      <c r="I29" s="7">
-        <v>944238</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M29" s="7">
-        <v>2133</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1816511</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>457</v>
-      </c>
-      <c r="D30" s="7">
-        <v>430770</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H30" s="7">
-        <v>762</v>
-      </c>
-      <c r="I30" s="7">
-        <v>495012</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M30" s="7">
-        <v>1219</v>
-      </c>
-      <c r="N30" s="7">
-        <v>925782</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>527</v>
-      </c>
-      <c r="D31" s="7">
-        <v>572251</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H31" s="7">
-        <v>825</v>
-      </c>
-      <c r="I31" s="7">
-        <v>590477</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1352</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1162728</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1496</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1508578</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H32" s="7">
-        <v>2535</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1803366</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M32" s="7">
-        <v>4031</v>
-      </c>
-      <c r="N32" s="7">
-        <v>3311943</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3373</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3383872</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="7">
-        <v>5362</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3833092</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="7">
-        <v>8735</v>
-      </c>
-      <c r="N33" s="7">
-        <v>7216964</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>228</v>
+      <c r="A29" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
